--- a/2015-08.xlsx
+++ b/2015-08.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>2015年08月请假导出</t>
   </si>
@@ -63,6 +63,9 @@
     <t>病假</t>
   </si>
   <si>
+    <t>调休</t>
+  </si>
+  <si>
     <t>其他</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>上午</t>
   </si>
   <si>
+    <t>●</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
   </si>
   <si>
     <t>南洋</t>
-  </si>
-  <si>
-    <t>●</t>
   </si>
   <si>
     <t>悟空</t>
@@ -163,19 +166,13 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="d8e8c0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -199,7 +196,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -549,6 +546,7 @@
     <col min="38" max="38" width="6" customWidth="true" style="0"/>
     <col min="39" max="39" width="6" customWidth="true" style="0"/>
     <col min="40" max="40" width="6" customWidth="true" style="0"/>
+    <col min="41" max="41" width="6" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -763,12 +761,15 @@
       <c r="AN3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AO3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -864,34 +865,49 @@
         <v>31</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -900,6 +916,9 @@
         <v>0</v>
       </c>
       <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -907,16 +926,28 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ7" s="1">
         <v>0</v>
@@ -931,6 +962,9 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -938,16 +972,16 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
@@ -962,6 +996,9 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -969,25 +1006,25 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ11" s="1">
         <v>3</v>
@@ -1002,6 +1039,9 @@
         <v>0</v>
       </c>
       <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1009,43 +1049,43 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ13" s="1">
         <v>6</v>
@@ -1060,6 +1100,9 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1067,34 +1110,34 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -1109,6 +1152,9 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1116,16 +1162,16 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -1140,6 +1186,9 @@
         <v>0</v>
       </c>
       <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1147,16 +1196,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ19" s="1">
         <v>0</v>
@@ -1171,6 +1220,9 @@
         <v>0</v>
       </c>
       <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1178,16 +1230,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ21" s="1">
         <v>0</v>
@@ -1202,6 +1254,9 @@
         <v>0</v>
       </c>
       <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1209,16 +1264,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" s="1">
         <v>0</v>
@@ -1233,6 +1288,9 @@
         <v>0</v>
       </c>
       <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1240,16 +1298,16 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ25" s="1">
         <v>0</v>
@@ -1264,6 +1322,9 @@
         <v>0</v>
       </c>
       <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1271,16 +1332,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" s="1">
         <v>0</v>
@@ -1295,6 +1356,9 @@
         <v>0</v>
       </c>
       <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1302,16 +1366,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ29" s="1">
         <v>0</v>
@@ -1326,6 +1390,9 @@
         <v>0</v>
       </c>
       <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1333,16 +1400,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" s="1">
         <v>0</v>
@@ -1357,6 +1424,9 @@
         <v>0</v>
       </c>
       <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1364,16 +1434,16 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ33" s="1">
         <v>0</v>
@@ -1388,6 +1458,9 @@
         <v>0</v>
       </c>
       <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1395,16 +1468,16 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ35" s="1">
         <v>0</v>
@@ -1419,6 +1492,9 @@
         <v>0</v>
       </c>
       <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1426,16 +1502,16 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ37" s="1">
         <v>0</v>
@@ -1450,6 +1526,9 @@
         <v>0</v>
       </c>
       <c r="AN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1457,16 +1536,16 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ39" s="1">
         <v>0</v>
@@ -1481,6 +1560,9 @@
         <v>0</v>
       </c>
       <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1488,16 +1570,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ41" s="1">
         <v>0</v>
@@ -1512,6 +1594,9 @@
         <v>0</v>
       </c>
       <c r="AN41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1519,13 +1604,13 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="A1:AO2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A6"/>
